--- a/biology/Médecine/Office_fédéral_de_la_santé_publique/Office_fédéral_de_la_santé_publique.xlsx
+++ b/biology/Médecine/Office_fédéral_de_la_santé_publique/Office_fédéral_de_la_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Office_f%C3%A9d%C3%A9ral_de_la_sant%C3%A9_publique</t>
+          <t>Office_fédéral_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Office fédéral de la santé publique (OFSP ; en allemand : Bundesamt für Gesundheit, BAG ; en italien : Ufficio federale della sanità pubblica, UFSP ; en romanche : Uffizi federal da sanadad publica, UFSP) est l'office fédéral compétent en matière de santé publique en Suisse. 
 Il est rattaché au Département fédéral de l'intérieur. Son siège est à Liebefeld (Köniz), dans la banlieue de Berne.
-Depuis 2020, il est dirigé par Anne Lévy[1].
+Depuis 2020, il est dirigé par Anne Lévy.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Office_f%C3%A9d%C3%A9ral_de_la_sant%C3%A9_publique</t>
+          <t>Office_fédéral_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Domaines de compétence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'OFSP est responsable des domaines suivants[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'OFSP est responsable des domaines suivants : 
 Épidémies, maladies infectieuses ;
 Drogues et prévention des toxicomanies ;
 Sécurité des denrées alimentaires ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Office_f%C3%A9d%C3%A9ral_de_la_sant%C3%A9_publique</t>
+          <t>Office_fédéral_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,12 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991-2009 : Thomas Zeltner ;
-2010-2020 : Pascal Strupler[3] ;
+2010-2020 : Pascal Strupler ;
 Dès 2020 : Anne Lévy.</t>
         </is>
       </c>
